--- a/data/data_2010.xlsx
+++ b/data/data_2010.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/steel-flows-sankeys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/steel-flows-sankeys/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DE98C9-2357-AD4D-A41E-5B8A47284E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB6D8FB-878A-744E-933A-0050F93EB4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2820" yWindow="-18700" windowWidth="30240" windowHeight="17340" activeTab="2" xr2:uid="{95929309-E14E-F341-94AB-0DA32D6E9E75}"/>
+    <workbookView xWindow="-2820" yWindow="-18700" windowWidth="30240" windowHeight="17340" xr2:uid="{95929309-E14E-F341-94AB-0DA32D6E9E75}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="44" r:id="rId1"/>
@@ -1081,7 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CA2B4D-0647-CC4F-AA47-5450E2F8344B}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -10672,7 +10672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B91A66A-1949-5346-885A-6093E423C059}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -11776,7 +11778,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="38">
         <f ca="1">R8/parameters!$B$7-H3-H5</f>
-        <v>561.69201249801154</v>
+        <v>1274.7403894539143</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -11784,12 +11786,12 @@
       <c r="L4" s="13"/>
       <c r="M4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>561.69201249801154</v>
+        <v>1274.7403894539143</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>752.98798750198864</v>
+        <v>39.93961054608576</v>
       </c>
       <c r="P4" s="11" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT("'data'!$K$" &amp; $A$1)*parameters!$B$14</f>
@@ -11805,7 +11807,7 @@
       </c>
       <c r="S4" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1172.0800000000004</v>
+        <v>1172.0800000000002</v>
       </c>
       <c r="T4" s="7"/>
     </row>
@@ -11824,7 +11826,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="38">
         <f ca="1">E15*parameters!$B$4-P5-Q5-F5</f>
-        <v>3190.3665036984357</v>
+        <v>2477.318126742533</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -11832,7 +11834,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3190.3665036984357</v>
+        <v>2477.318126742533</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -11846,11 +11848,11 @@
       </c>
       <c r="R5" s="16">
         <f ca="1">SUM(M5:Q5)</f>
-        <v>1618.4465036984357</v>
+        <v>905.3981267425329</v>
       </c>
       <c r="S5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1618.4465036984357</v>
+        <v>905.3981267425329</v>
       </c>
       <c r="T5" s="35"/>
     </row>
@@ -11985,21 +11987,21 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14">
         <f ca="1">R10/J19</f>
-        <v>3240.8484870378979</v>
+        <v>2804</v>
       </c>
       <c r="K9" s="14">
         <f ca="1">R11/K19</f>
-        <v>2702.8515129621014</v>
+        <v>2338.5220483641538</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5943.6999999999989</v>
+        <v>5142.5220483641533</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>801.17795163584651</v>
       </c>
       <c r="P9" s="11" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT("'data'!$R$" &amp; $A$1)*parameters!$B$15</f>
@@ -12015,7 +12017,7 @@
       </c>
       <c r="S9" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3590.7199999999989</v>
+        <v>3590.72</v>
       </c>
       <c r="T9" s="7"/>
     </row>
@@ -12166,7 +12168,7 @@
       </c>
       <c r="E13" s="9">
         <f ca="1">-(E18-R5)</f>
-        <v>-200.03271394025614</v>
+        <v>-111.90313926031308</v>
       </c>
       <c r="F13" s="9">
         <f ca="1">-(F18-R6)</f>
@@ -12189,7 +12191,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="9">
         <f t="shared" ref="M13:M17" ca="1" si="5">SUM(B13:L13)</f>
-        <v>-368.80214892507024</v>
+        <v>-280.67257424512718</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -12197,11 +12199,11 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="9">
         <f t="shared" ref="R13:R18" ca="1" si="6">SUM(M13:Q13)</f>
-        <v>-368.80214892507024</v>
+        <v>-280.67257424512718</v>
       </c>
       <c r="S13" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>-368.80214892507024</v>
+        <v>-280.67257424512718</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -12218,11 +12220,11 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14">
         <f ca="1">-(J18-R10)</f>
-        <v>-492.92848703789787</v>
+        <v>-56.079999999999927</v>
       </c>
       <c r="K14" s="14">
         <f ca="1">-(K18-R11)</f>
-        <v>-411.09990556523098</v>
+        <v>-46.770440967283321</v>
       </c>
       <c r="L14" s="13">
         <f ca="1">-(L18-R12)</f>
@@ -12230,7 +12232,7 @@
       </c>
       <c r="M14" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>-1818.4792176386918</v>
+        <v>-1017.3012660028462</v>
       </c>
       <c r="N14" s="16">
         <f ca="1">-E16</f>
@@ -12241,11 +12243,11 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>-1818.4792176386918</v>
+        <v>-1017.3012660028462</v>
       </c>
       <c r="S14" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>-1818.4792176386918</v>
+        <v>-1017.3012660028462</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -12257,7 +12259,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14">
         <f ca="1">-(J14+K14)-L14</f>
-        <v>1818.4792176386918</v>
+        <v>1017.3012660028462</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -12268,7 +12270,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1818.4792176386918</v>
+        <v>1017.3012660028462</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -12276,11 +12278,11 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1818.4792176386918</v>
+        <v>1017.3012660028462</v>
       </c>
       <c r="S15" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1818.4792176386918</v>
+        <v>1017.3012660028462</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -12371,7 +12373,7 @@
       </c>
       <c r="E18" s="9">
         <f ca="1">$R$5/parameters!$B$4</f>
-        <v>1818.4792176386918</v>
+        <v>1017.301266002846</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" ref="F18:L18" ca="1" si="7">SUM(F$2:F$12)</f>
@@ -12391,11 +12393,11 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>3240.8484870378979</v>
+        <v>2804</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>2702.8515129621014</v>
+        <v>2338.5220483641538</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -12403,7 +12405,7 @@
       </c>
       <c r="M18" s="17">
         <f ca="1">SUM(B18:L18)</f>
-        <v>27742.900260020375</v>
+        <v>26140.544356748687</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -12411,11 +12413,11 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>27742.900260020375</v>
+        <v>26140.544356748687</v>
       </c>
       <c r="S18" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>27742.900260020375</v>
+        <v>26140.544356748687</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -12454,13 +12456,13 @@
         <f t="shared" ref="I19" ca="1" si="9">1-(-I13)/I18</f>
         <v>1</v>
       </c>
-      <c r="J19" s="39">
-        <f ca="1">(R10+R11)/(R9-P9-Q9)</f>
-        <v>0.84790140945822823</v>
-      </c>
-      <c r="K19" s="39">
-        <f ca="1">J19</f>
-        <v>0.84790140945822823</v>
+      <c r="J19" s="44">
+        <f>parameters!$B$9</f>
+        <v>0.98</v>
+      </c>
+      <c r="K19" s="44">
+        <f>J19</f>
+        <v>0.98</v>
       </c>
       <c r="L19" s="40">
         <f ca="1">1-(-L14)/L18</f>
@@ -13446,7 +13448,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J19" sqref="J19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19890,7 +19892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C350F8-DE60-9C44-ADFE-BB5236F405BE}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
